--- a/data/news_and_keyword/kosdaq/골든센츄리.xlsx
+++ b/data/news_and_keyword/kosdaq/골든센츄리.xlsx
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>대규모 유상증자에 급락</t>
+          <t>장 초반 하락세...약 20%↓</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['대규모', '유상증자에', '급락']</t>
+          <t>['장', '초반', '하락세', '약', '20']</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>장 초반 하락세...약 20%↓</t>
+          <t>대규모 유상증자에 급락</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['장', '초반', '하락세', '약', '20']</t>
+          <t>['대규모', '유상증자에', '급락']</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>상장 첫날 '하락'…공모가는 웃돌아</t>
+          <t>상장 첫 날 급락 출발</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['상장', '첫날', '웃돌아']</t>
+          <t>['상장', '첫', '날', '급락', '출발']</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>상장 첫 날 급락 출발</t>
+          <t>상장 첫날 '하락'…공모가는 웃돌아</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['상장', '첫', '날', '급락', '출발']</t>
+          <t>['상장', '첫날', '웃돌아']</t>
         </is>
       </c>
       <c r="D82" t="n">
